--- a/ExportExcel.xlsx
+++ b/ExportExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
   <si>
     <t>STT</t>
   </si>
@@ -26,12 +26,6 @@
     <t>Họ tên</t>
   </si>
   <si>
-    <t>Mã tòa</t>
-  </si>
-  <si>
-    <t>Mã phòng</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -50,37 +44,163 @@
     <t>Địa chỉ</t>
   </si>
   <si>
-    <t>longgggggggggggg</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>A001</t>
-  </si>
-  <si>
-    <t>5@gmail.com</t>
-  </si>
-  <si>
-    <t>5555-05-05</t>
-  </si>
-  <si>
-    <t>nam</t>
-  </si>
-  <si>
-    <t>73dctt22223</t>
-  </si>
-  <si>
-    <t>nguyen van long</t>
-  </si>
-  <si>
-    <t>long231224@gmail.com</t>
-  </si>
-  <si>
-    <t>2004-12-23</t>
-  </si>
-  <si>
-    <t>ha tay</t>
+    <t>SV001</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Long</t>
+  </si>
+  <si>
+    <t>huongnguyen@gmail.com</t>
+  </si>
+  <si>
+    <t>1998-05-10</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>SV002</t>
+  </si>
+  <si>
+    <t>Trần Văn Nam</t>
+  </si>
+  <si>
+    <t>namtran@gmail.com</t>
+  </si>
+  <si>
+    <t>1999-06-15</t>
+  </si>
+  <si>
+    <t>Hải Phòng</t>
+  </si>
+  <si>
+    <t>SV003</t>
+  </si>
+  <si>
+    <t>Lê Thị Minh</t>
+  </si>
+  <si>
+    <t>minhle@gmail.com</t>
+  </si>
+  <si>
+    <t>1997-07-20</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>Đà Nẵng</t>
+  </si>
+  <si>
+    <t>SV004</t>
+  </si>
+  <si>
+    <t>Phạm Văn Tuấn</t>
+  </si>
+  <si>
+    <t>tuantuan@gmail.com</t>
+  </si>
+  <si>
+    <t>1998-08-25</t>
+  </si>
+  <si>
+    <t>Huế</t>
+  </si>
+  <si>
+    <t>SV005</t>
+  </si>
+  <si>
+    <t>Hoàng Thị An</t>
+  </si>
+  <si>
+    <t>anhoang@gmail.com</t>
+  </si>
+  <si>
+    <t>2000-09-30</t>
+  </si>
+  <si>
+    <t>Nha Trang</t>
+  </si>
+  <si>
+    <t>SV006</t>
+  </si>
+  <si>
+    <t>Đỗ Văn Đức</t>
+  </si>
+  <si>
+    <t>ducdo@gmail.com</t>
+  </si>
+  <si>
+    <t>1999-10-05</t>
+  </si>
+  <si>
+    <t>Cần Thơ</t>
+  </si>
+  <si>
+    <t>SV007</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Lan</t>
+  </si>
+  <si>
+    <t>lannguyen@gmail.com</t>
+  </si>
+  <si>
+    <t>1998-11-15</t>
+  </si>
+  <si>
+    <t>Vũng Tàu</t>
+  </si>
+  <si>
+    <t>SV008</t>
+  </si>
+  <si>
+    <t>Trần Văn Anh</t>
+  </si>
+  <si>
+    <t>anhtran@gmail.com</t>
+  </si>
+  <si>
+    <t>2001-12-20</t>
+  </si>
+  <si>
+    <t>Đà Lạt</t>
+  </si>
+  <si>
+    <t>SV009</t>
+  </si>
+  <si>
+    <t>Lê Thị Phương</t>
+  </si>
+  <si>
+    <t>phuongle@gmail.com</t>
+  </si>
+  <si>
+    <t>2000-01-25</t>
+  </si>
+  <si>
+    <t>Buôn Ma Thuột</t>
+  </si>
+  <si>
+    <t>SV010</t>
+  </si>
+  <si>
+    <t>Phạm Văn Bình</t>
+  </si>
+  <si>
+    <t>binhpham@gmail.com</t>
+  </si>
+  <si>
+    <t>1999-02-28</t>
+  </si>
+  <si>
+    <t>012345678</t>
+  </si>
+  <si>
+    <t>Hồ Chí Minh</t>
   </si>
 </sst>
 </file>
@@ -140,13 +260,13 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -448,129 +568,344 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="1" max="1" width="4.570313" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="24.708252" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="5.855713" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="1.142578" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>555</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="3">
+        <v>901234567</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="3">
+        <v>123456789</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2">
-        <v>555</v>
-      </c>
-      <c r="H2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="2">
-        <v>555</v>
-      </c>
-      <c r="K2" s="2">
-        <v>5555555</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="E3" s="3">
+        <v>912345678</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="H3" s="3">
+        <v>234567890</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="2">
-        <v>976205019</v>
-      </c>
-      <c r="H3" s="2" t="s">
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J3" s="2">
-        <v>5555</v>
-      </c>
-      <c r="K3" s="2" t="s">
+      <c r="C4" s="3" t="s">
         <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3">
+        <v>923456789</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3">
+        <v>345678901</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3">
+        <v>934567890</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3">
+        <v>456789012</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3">
+        <v>945678901</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3">
+        <v>567890123</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3">
+        <v>956789012</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3">
+        <v>678901234</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="3">
+        <v>967890123</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="3">
+        <v>789012345</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3">
+        <v>978901234</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="3">
+        <v>890123456</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="3">
+        <v>989012345</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="3">
+        <v>901234567</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="3">
+        <v>990123456</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/ExportExcel.xlsx
+++ b/ExportExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
   <si>
     <t>STT</t>
   </si>
@@ -56,24 +56,27 @@
     <t>1998-05-10</t>
   </si>
   <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>SV002</t>
+  </si>
+  <si>
+    <t>Trần Văn Nam</t>
+  </si>
+  <si>
+    <t>namtran@gmail.com</t>
+  </si>
+  <si>
+    <t>1999-06-15</t>
+  </si>
+  <si>
     <t>Nam</t>
   </si>
   <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
-    <t>SV002</t>
-  </si>
-  <si>
-    <t>Trần Văn Nam</t>
-  </si>
-  <si>
-    <t>namtran@gmail.com</t>
-  </si>
-  <si>
-    <t>1999-06-15</t>
-  </si>
-  <si>
     <t>Hải Phòng</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
     <t>1997-07-20</t>
   </si>
   <si>
-    <t>Nữ</t>
-  </si>
-  <si>
     <t>Đà Nẵng</t>
   </si>
   <si>
@@ -183,24 +183,6 @@
   </si>
   <si>
     <t>Buôn Ma Thuột</t>
-  </si>
-  <si>
-    <t>SV010</t>
-  </si>
-  <si>
-    <t>Phạm Văn Bình</t>
-  </si>
-  <si>
-    <t>binhpham@gmail.com</t>
-  </si>
-  <si>
-    <t>1999-02-28</t>
-  </si>
-  <si>
-    <t>012345678</t>
-  </si>
-  <si>
-    <t>Hồ Chí Minh</t>
   </si>
 </sst>
 </file>
@@ -568,10 +550,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -667,13 +649,13 @@
         <v>18</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H3" s="3">
         <v>234567890</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -681,22 +663,22 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E4" s="3">
         <v>923456789</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H4" s="3">
         <v>345678901</v>
@@ -725,7 +707,7 @@
         <v>29</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H5" s="3">
         <v>456789012</v>
@@ -754,7 +736,7 @@
         <v>34</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H6" s="3">
         <v>567890123</v>
@@ -783,7 +765,7 @@
         <v>39</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H7" s="3">
         <v>678901234</v>
@@ -812,7 +794,7 @@
         <v>44</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H8" s="3">
         <v>789012345</v>
@@ -841,7 +823,7 @@
         <v>49</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H9" s="3">
         <v>890123456</v>
@@ -870,42 +852,13 @@
         <v>54</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="H10" s="3">
         <v>901234567</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>55</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E11" s="3">
-        <v>990123456</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/ExportExcel.xlsx
+++ b/ExportExcel.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="DSSV" sheetId="1" r:id="rId4"/>
+    <sheet name="DSLS" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -15,192 +15,195 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
-  <si>
-    <t>STT</t>
-  </si>
-  <si>
-    <t>Mã sinh viên</t>
-  </si>
-  <si>
-    <t>Họ tên</t>
-  </si>
-  <si>
-    <t>Email</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="63">
+  <si>
+    <t>Số thứ tự</t>
+  </si>
+  <si>
+    <t>Mã nhân viên</t>
+  </si>
+  <si>
+    <t>Tên nhân viên</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
   </si>
   <si>
     <t>Số điện thoại</t>
   </si>
   <si>
-    <t>Ngày sinh</t>
-  </si>
-  <si>
-    <t>Giới tính</t>
-  </si>
-  <si>
-    <t>CCCD</t>
-  </si>
-  <si>
-    <t>Địa chỉ</t>
-  </si>
-  <si>
-    <t>SV001</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Long</t>
-  </si>
-  <si>
-    <t>huongnguyen@gmail.com</t>
-  </si>
-  <si>
-    <t>1998-05-10</t>
+    <t>Mã tòa</t>
+  </si>
+  <si>
+    <t>NV001</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Đức</t>
   </si>
   <si>
     <t>Nam</t>
   </si>
   <si>
+    <t>1990-01-01</t>
+  </si>
+  <si>
     <t>Hà Nội</t>
   </si>
   <si>
-    <t>SV002</t>
-  </si>
-  <si>
-    <t>Trần Văn Nam</t>
-  </si>
-  <si>
-    <t>namtran@gmail.com</t>
-  </si>
-  <si>
-    <t>1999-06-15</t>
+    <t>0901234567</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>NV002</t>
+  </si>
+  <si>
+    <t>Trần Thị Bích</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>1992-02-02</t>
   </si>
   <si>
     <t>Hải Phòng</t>
   </si>
   <si>
-    <t>SV003</t>
-  </si>
-  <si>
-    <t>Lê Thị Minh</t>
-  </si>
-  <si>
-    <t>minhle@gmail.com</t>
-  </si>
-  <si>
-    <t>1997-07-20</t>
-  </si>
-  <si>
-    <t>Nữ</t>
+    <t>0912345678</t>
+  </si>
+  <si>
+    <t>NV003</t>
+  </si>
+  <si>
+    <t>Lê Văn Cường</t>
+  </si>
+  <si>
+    <t>1993-03-03</t>
   </si>
   <si>
     <t>Đà Nẵng</t>
   </si>
   <si>
-    <t>SV004</t>
-  </si>
-  <si>
-    <t>Phạm Văn Tuấn</t>
-  </si>
-  <si>
-    <t>tuantuan@gmail.com</t>
-  </si>
-  <si>
-    <t>1998-08-25</t>
+    <t>0923456789</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>NV004</t>
+  </si>
+  <si>
+    <t>Phạm Thị Diễm</t>
+  </si>
+  <si>
+    <t>1994-04-04</t>
   </si>
   <si>
     <t>Huế</t>
   </si>
   <si>
-    <t>SV005</t>
-  </si>
-  <si>
-    <t>Hoàng Thị An</t>
-  </si>
-  <si>
-    <t>anhoang@gmail.com</t>
-  </si>
-  <si>
-    <t>2000-09-30</t>
+    <t>0934567890</t>
+  </si>
+  <si>
+    <t>NV005</t>
+  </si>
+  <si>
+    <t>Hoàng Văn Đức</t>
+  </si>
+  <si>
+    <t>1995-05-05</t>
   </si>
   <si>
     <t>Nha Trang</t>
   </si>
   <si>
-    <t>SV006</t>
-  </si>
-  <si>
-    <t>Đỗ Văn Đức</t>
-  </si>
-  <si>
-    <t>ducdo@gmail.com</t>
-  </si>
-  <si>
-    <t>1999-10-05</t>
+    <t>0945678901</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>NV006</t>
+  </si>
+  <si>
+    <t>Đỗ Thị Phương</t>
+  </si>
+  <si>
+    <t>1996-06-06</t>
   </si>
   <si>
     <t>Cần Thơ</t>
   </si>
   <si>
-    <t>SV007</t>
-  </si>
-  <si>
-    <t>Nguyễn Thị Lan</t>
-  </si>
-  <si>
-    <t>lannguyen@gmail.com</t>
-  </si>
-  <si>
-    <t>1998-11-15</t>
+    <t>0956789012</t>
+  </si>
+  <si>
+    <t>NV007</t>
+  </si>
+  <si>
+    <t>Nguyễn Văn Giang</t>
+  </si>
+  <si>
+    <t>1997-07-07</t>
   </si>
   <si>
     <t>Vũng Tàu</t>
   </si>
   <si>
-    <t>SV008</t>
-  </si>
-  <si>
-    <t>Trần Văn Anh</t>
-  </si>
-  <si>
-    <t>anhtran@gmail.com</t>
-  </si>
-  <si>
-    <t>2001-12-20</t>
+    <t>0967890123</t>
+  </si>
+  <si>
+    <t>NV008</t>
+  </si>
+  <si>
+    <t>Trần Thị Hương</t>
+  </si>
+  <si>
+    <t>1998-08-08</t>
   </si>
   <si>
     <t>Đà Lạt</t>
   </si>
   <si>
-    <t>SV009</t>
-  </si>
-  <si>
-    <t>Lê Thị Phương</t>
-  </si>
-  <si>
-    <t>phuongle@gmail.com</t>
-  </si>
-  <si>
-    <t>2000-01-25</t>
+    <t>0978901234</t>
+  </si>
+  <si>
+    <t>NV009</t>
+  </si>
+  <si>
+    <t>Lê Văn Hải</t>
+  </si>
+  <si>
+    <t>1999-09-09</t>
   </si>
   <si>
     <t>Buôn Ma Thuột</t>
   </si>
   <si>
-    <t>SV010</t>
-  </si>
-  <si>
-    <t>Phạm Văn Bình</t>
-  </si>
-  <si>
-    <t>binhpham@gmail.com</t>
-  </si>
-  <si>
-    <t>1999-02-28</t>
-  </si>
-  <si>
-    <t>012345678</t>
+    <t>0989012345</t>
+  </si>
+  <si>
+    <t>NV010</t>
+  </si>
+  <si>
+    <t>Phạm Thị Kim</t>
+  </si>
+  <si>
+    <t>2000-10-10</t>
   </si>
   <si>
     <t>Hồ Chí Minh</t>
+  </si>
+  <si>
+    <t>0990123456</t>
   </si>
 </sst>
 </file>
@@ -256,12 +259,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -568,344 +568,308 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="25.85083" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="1.142578" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="19.995117" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="8.140869" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3">
-        <v>901234567</v>
-      </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="0" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3">
-        <v>123456789</v>
-      </c>
-      <c r="I2" s="3" t="s">
+      <c r="H2" s="0" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="2">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3">
-        <v>912345678</v>
-      </c>
-      <c r="F3" s="3" t="s">
+      <c r="E3" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="3">
-        <v>234567890</v>
-      </c>
-      <c r="I3" s="3" t="s">
+      <c r="F3" s="0" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="G3" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="H3" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="2">
+        <v>4</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="3">
-        <v>923456789</v>
-      </c>
-      <c r="F4" s="3" t="s">
+      <c r="D4" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="F4" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="3">
-        <v>345678901</v>
-      </c>
-      <c r="I4" s="3" t="s">
+      <c r="G4" s="0" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
+      <c r="H4" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="C5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="2">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="E5" s="3">
-        <v>934567890</v>
-      </c>
-      <c r="F5" s="3" t="s">
+      <c r="D5" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H5" s="3">
-        <v>456789012</v>
-      </c>
-      <c r="I5" s="3" t="s">
+      <c r="F5" s="0" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="3">
-        <v>5</v>
-      </c>
-      <c r="B6" s="3" t="s">
+      <c r="G5" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="H5" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="3">
-        <v>945678901</v>
-      </c>
-      <c r="F6" s="3" t="s">
+      <c r="D6" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="3">
-        <v>567890123</v>
-      </c>
-      <c r="I6" s="3" t="s">
+      <c r="F6" s="0" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3">
-        <v>6</v>
-      </c>
-      <c r="B7" s="3" t="s">
+      <c r="G6" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="H6" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="3" t="s">
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="2">
+        <v>7</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="3">
-        <v>956789012</v>
-      </c>
-      <c r="F7" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H7" s="3">
-        <v>678901234</v>
-      </c>
-      <c r="I7" s="3" t="s">
+      <c r="D7" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="0" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3">
-        <v>7</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="F7" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="G7" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="H7" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="2">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="3">
-        <v>967890123</v>
-      </c>
-      <c r="F8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H8" s="3">
-        <v>789012345</v>
-      </c>
-      <c r="I8" s="3" t="s">
+      <c r="D8" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="0" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="3">
-        <v>8</v>
-      </c>
-      <c r="B9" s="3" t="s">
+      <c r="F8" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="G8" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="H8" s="0" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="2">
+        <v>9</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E9" s="3">
-        <v>978901234</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="C9" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="3">
-        <v>890123456</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="D9" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="0" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="F9" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="G9" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="H9" s="0" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="2">
+        <v>10</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E10" s="3">
-        <v>989012345</v>
-      </c>
-      <c r="F10" s="3" t="s">
+      <c r="C10" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="3">
-        <v>901234567</v>
-      </c>
-      <c r="I10" s="3" t="s">
+      <c r="D10" s="0" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="0" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="3">
-        <v>10</v>
-      </c>
-      <c r="B11" s="3" t="s">
+      <c r="F10" s="0" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="G10" s="0" t="s">
         <v>57</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="H10" s="0" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="2">
+        <v>11</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="E11" s="3">
-        <v>990123456</v>
-      </c>
-      <c r="F11" s="3" t="s">
+      <c r="C11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="H11" s="3" t="s">
+      <c r="D11" s="0" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="F11" s="0" t="s">
         <v>61</v>
+      </c>
+      <c r="G11" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="0" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/ExportExcel.xlsx
+++ b/ExportExcel.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="DSLS" sheetId="1" r:id="rId4"/>
+    <sheet name="DSGX" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -15,171 +15,81 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
   <si>
     <t>Số thứ tự</t>
   </si>
   <si>
-    <t>Mã nhân viên</t>
-  </si>
-  <si>
-    <t>Tên nhân viên</t>
-  </si>
-  <si>
-    <t>Giới tính</t>
-  </si>
-  <si>
-    <t>Ngày sinh</t>
-  </si>
-  <si>
-    <t>Địa chỉ</t>
+    <t>Mã sinh viên</t>
+  </si>
+  <si>
+    <t>Tên sinh viên</t>
+  </si>
+  <si>
+    <t>Mã phòng</t>
+  </si>
+  <si>
+    <t>Mã tòa</t>
   </si>
   <si>
     <t>Số điện thoại</t>
   </si>
   <si>
-    <t>Mã tòa</t>
-  </si>
-  <si>
-    <t>NV001</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn An</t>
-  </si>
-  <si>
-    <t>Nam</t>
-  </si>
-  <si>
-    <t>1990-01-01</t>
-  </si>
-  <si>
-    <t>Hà Nội</t>
-  </si>
-  <si>
-    <t>0901234568</t>
-  </si>
-  <si>
-    <t>NV002</t>
-  </si>
-  <si>
-    <t>Trần Thị Bích</t>
-  </si>
-  <si>
-    <t>Nữ</t>
-  </si>
-  <si>
-    <t>1992-02-02</t>
-  </si>
-  <si>
-    <t>Hải Phòng</t>
-  </si>
-  <si>
-    <t>0912345678</t>
-  </si>
-  <si>
-    <t>NV003</t>
-  </si>
-  <si>
-    <t>Lê Văn Cường</t>
-  </si>
-  <si>
-    <t>1993-03-03</t>
-  </si>
-  <si>
-    <t>Đà Nẵng</t>
-  </si>
-  <si>
-    <t>0923456789</t>
-  </si>
-  <si>
-    <t>NV004</t>
-  </si>
-  <si>
-    <t>Phạm Thị Diễm</t>
-  </si>
-  <si>
-    <t>1994-04-04</t>
-  </si>
-  <si>
-    <t>Huế</t>
-  </si>
-  <si>
-    <t>0934567893</t>
-  </si>
-  <si>
-    <t>NV005</t>
-  </si>
-  <si>
-    <t>Hoàng Văn Đức</t>
-  </si>
-  <si>
-    <t>1995-05-05</t>
-  </si>
-  <si>
-    <t>Nha Trang</t>
-  </si>
-  <si>
-    <t>0945678901</t>
-  </si>
-  <si>
-    <t>NV006</t>
-  </si>
-  <si>
-    <t>Đỗ Thị Phương</t>
-  </si>
-  <si>
-    <t>1996-06-06</t>
-  </si>
-  <si>
-    <t>Cần Thơ</t>
-  </si>
-  <si>
-    <t>0956789012</t>
-  </si>
-  <si>
-    <t>NV007</t>
-  </si>
-  <si>
-    <t>Nguyễn Văn Giang</t>
-  </si>
-  <si>
-    <t>1997-07-07</t>
-  </si>
-  <si>
-    <t>Vũng Tàu</t>
-  </si>
-  <si>
-    <t>0967890123</t>
-  </si>
-  <si>
-    <t>NV008</t>
-  </si>
-  <si>
-    <t>Trần Thị Hương</t>
-  </si>
-  <si>
-    <t>1998-08-08</t>
-  </si>
-  <si>
-    <t>Đà Lạt</t>
-  </si>
-  <si>
-    <t>0978901234</t>
-  </si>
-  <si>
-    <t>NV009</t>
-  </si>
-  <si>
-    <t>Lê Văn Hải</t>
-  </si>
-  <si>
-    <t>1999-09-09</t>
-  </si>
-  <si>
-    <t>Buôn Ma Thuột</t>
-  </si>
-  <si>
-    <t>0989012345</t>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Ngày bắt đầu</t>
+  </si>
+  <si>
+    <t>Loại xe</t>
+  </si>
+  <si>
+    <t>Biển số xe</t>
+  </si>
+  <si>
+    <t>trần gia bảo</t>
+  </si>
+  <si>
+    <t>A101</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>tranbao@gmai.com</t>
+  </si>
+  <si>
+    <t>2024-12-12</t>
+  </si>
+  <si>
+    <t>xe máy</t>
+  </si>
+  <si>
+    <t>90B4-00871</t>
+  </si>
+  <si>
+    <t>phùng nghĩa minh</t>
+  </si>
+  <si>
+    <t>A002</t>
+  </si>
+  <si>
+    <t>mbnmbnm@gmail.com</t>
+  </si>
+  <si>
+    <t>2024-07-05</t>
+  </si>
+  <si>
+    <t>Xe máy</t>
+  </si>
+  <si>
+    <t>90B4-00876</t>
+  </si>
+  <si>
+    <t>minh@gmail.con</t>
+  </si>
+  <si>
+    <t>2024-07-12</t>
   </si>
 </sst>
 </file>
@@ -544,10 +454,10 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -555,14 +465,16 @@
     <col min="1" max="1" width="11.711426" bestFit="true" customWidth="true" style="0"/>
     <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
     <col min="3" max="3" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="8.140869" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="8.140869" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="21.137695" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="12.854004" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -572,237 +484,123 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>123</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="2">
+        <v>12312312</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="0" t="s">
+      <c r="B3" s="2">
+        <v>123123</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="0"/>
+      <c r="F3" s="2">
+        <v>243234</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="2">
+    <row r="4" spans="1:10">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" s="0" t="s">
+      <c r="B4" s="2">
+        <v>567657</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="0"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="2">
-        <v>4</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="E4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="2">
+        <v>234234</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="0" t="s">
+      <c r="J4" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" s="0"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2">
-        <v>5</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="H5" s="0"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2">
-        <v>6</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="H6" s="0"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2">
-        <v>7</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D7" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E7" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F7" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="G7" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="H7" s="0"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2">
-        <v>8</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="0"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="2">
-        <v>9</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F9" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="0"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="2">
-        <v>10</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="H10" s="0"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/ExportExcel.xlsx
+++ b/ExportExcel.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="DSGX" sheetId="1" r:id="rId4"/>
+    <sheet name="HD" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -15,30 +15,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="25">
-  <si>
-    <t>Số thứ tự</t>
-  </si>
-  <si>
-    <t>Mã sinh viên</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+  <si>
+    <t>Mã hóa đơn</t>
+  </si>
+  <si>
+    <t>Mã sinh viên</t>
   </si>
   <si>
     <t>Tên sinh viên</t>
   </si>
   <si>
-    <t>Mã phòng</t>
-  </si>
-  <si>
-    <t>Mã tòa</t>
-  </si>
-  <si>
-    <t>Số điện thoại</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Ngày bắt đầu</t>
+    <t>Tháng</t>
+  </si>
+  <si>
+    <t>Thành tiền</t>
+  </si>
+  <si>
+    <t>Ngày lập</t>
   </si>
   <si>
     <t>Loại xe</t>
@@ -47,49 +41,37 @@
     <t>Biển số xe</t>
   </si>
   <si>
-    <t>trần gia bảo</t>
-  </si>
-  <si>
-    <t>A101</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>tranbao@gmai.com</t>
-  </si>
-  <si>
-    <t>2024-12-12</t>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Ghi chú</t>
+  </si>
+  <si>
+    <t>HD003</t>
+  </si>
+  <si>
+    <t>73DCTT2337</t>
+  </si>
+  <si>
+    <t>Tưởng văn huế</t>
+  </si>
+  <si>
+    <t>150,000</t>
+  </si>
+  <si>
+    <t>2024-06-29</t>
   </si>
   <si>
     <t>xe máy</t>
   </si>
   <si>
-    <t>90B4-00871</t>
-  </si>
-  <si>
-    <t>phùng nghĩa minh</t>
-  </si>
-  <si>
-    <t>A002</t>
-  </si>
-  <si>
-    <t>mbnmbnm@gmail.com</t>
-  </si>
-  <si>
-    <t>2024-07-05</t>
-  </si>
-  <si>
-    <t>Xe máy</t>
-  </si>
-  <si>
     <t>90B4-00876</t>
   </si>
   <si>
-    <t>minh@gmail.con</t>
-  </si>
-  <si>
-    <t>2024-07-12</t>
+    <t>Đã thanh toán</t>
+  </si>
+  <si>
+    <t>bạn huế là người đó</t>
   </si>
 </sst>
 </file>
@@ -454,24 +436,24 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="11.711426" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="19.995117" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="10.568848" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="8.140869" bestFit="true" customWidth="true" style="0"/>
-    <col min="6" max="6" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="21.137695" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="15.281982" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="23.422852" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -507,99 +489,35 @@
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="2">
-        <v>123</v>
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="D2" s="2">
+        <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2">
-        <v>12312312</v>
+        <v>13</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>123123</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" s="2">
-        <v>243234</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>567657</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="2">
-        <v>234234</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/ExportExcel.xlsx
+++ b/ExportExcel.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Mã hóa đơn</t>
   </si>
@@ -47,31 +47,25 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>HD003</t>
-  </si>
-  <si>
-    <t>73DCTT2337</t>
-  </si>
-  <si>
-    <t>Tưởng văn huế</t>
-  </si>
-  <si>
-    <t>150,000</t>
-  </si>
-  <si>
-    <t>2024-06-29</t>
+    <t>HD01</t>
+  </si>
+  <si>
+    <t>trần gia bảo</t>
+  </si>
+  <si>
+    <t>70,000</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
   </si>
   <si>
     <t>xe máy</t>
   </si>
   <si>
-    <t>90B4-00876</t>
-  </si>
-  <si>
-    <t>Đã thanh toán</t>
-  </si>
-  <si>
-    <t>bạn huế là người đó</t>
+    <t>90B4-00871</t>
+  </si>
+  <si>
+    <t>Chưa thanh toán</t>
   </si>
 </sst>
 </file>
@@ -452,8 +446,8 @@
     <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
     <col min="7" max="7" width="9.283447" bestFit="true" customWidth="true" style="0"/>
     <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="23.422852" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="9.283447" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -492,33 +486,31 @@
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="2">
+        <v>123</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="2">
-        <v>4</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="J2" s="2"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/ExportExcel.xlsx
+++ b/ExportExcel.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="HD" sheetId="1" r:id="rId4"/>
+    <sheet name="DSSV" sheetId="1" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
@@ -15,57 +15,192 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
-  <si>
-    <t>Mã hóa đơn</t>
-  </si>
-  <si>
-    <t>Mã sinh viên</t>
-  </si>
-  <si>
-    <t>Tên sinh viên</t>
-  </si>
-  <si>
-    <t>Tháng</t>
-  </si>
-  <si>
-    <t>Thành tiền</t>
-  </si>
-  <si>
-    <t>Ngày lập</t>
-  </si>
-  <si>
-    <t>Loại xe</t>
-  </si>
-  <si>
-    <t>Biển số xe</t>
-  </si>
-  <si>
-    <t>Trạng thái</t>
-  </si>
-  <si>
-    <t>Ghi chú</t>
-  </si>
-  <si>
-    <t>HD01</t>
-  </si>
-  <si>
-    <t>trần gia bảo</t>
-  </si>
-  <si>
-    <t>70,000</t>
-  </si>
-  <si>
-    <t>0000-00-00</t>
-  </si>
-  <si>
-    <t>xe máy</t>
-  </si>
-  <si>
-    <t>90B4-00871</t>
-  </si>
-  <si>
-    <t>Chưa thanh toán</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="62">
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>Mã sinh viên</t>
+  </si>
+  <si>
+    <t>Họ tên</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>Số điện thoại</t>
+  </si>
+  <si>
+    <t>Ngày sinh</t>
+  </si>
+  <si>
+    <t>Giới tính</t>
+  </si>
+  <si>
+    <t>CCCD</t>
+  </si>
+  <si>
+    <t>Địa chỉ</t>
+  </si>
+  <si>
+    <t>SV001</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Long</t>
+  </si>
+  <si>
+    <t>huongnguyen@gmail.com</t>
+  </si>
+  <si>
+    <t>1998-05-10</t>
+  </si>
+  <si>
+    <t>Nam</t>
+  </si>
+  <si>
+    <t>Hà Nội</t>
+  </si>
+  <si>
+    <t>SV002</t>
+  </si>
+  <si>
+    <t>Trần Văn Nam</t>
+  </si>
+  <si>
+    <t>namtran@gmail.com</t>
+  </si>
+  <si>
+    <t>1999-06-15</t>
+  </si>
+  <si>
+    <t>Hải Phòng</t>
+  </si>
+  <si>
+    <t>SV003</t>
+  </si>
+  <si>
+    <t>Lê Thị Minh</t>
+  </si>
+  <si>
+    <t>minhle@gmail.com</t>
+  </si>
+  <si>
+    <t>1997-07-20</t>
+  </si>
+  <si>
+    <t>Nữ</t>
+  </si>
+  <si>
+    <t>Đà Nẵng</t>
+  </si>
+  <si>
+    <t>SV004</t>
+  </si>
+  <si>
+    <t>Phạm Văn Tuấn</t>
+  </si>
+  <si>
+    <t>tuantuan@gmail.com</t>
+  </si>
+  <si>
+    <t>1998-08-25</t>
+  </si>
+  <si>
+    <t>Huế</t>
+  </si>
+  <si>
+    <t>SV005</t>
+  </si>
+  <si>
+    <t>Hoàng Thị An</t>
+  </si>
+  <si>
+    <t>anhoang@gmail.com</t>
+  </si>
+  <si>
+    <t>2000-09-30</t>
+  </si>
+  <si>
+    <t>Nha Trang</t>
+  </si>
+  <si>
+    <t>SV006</t>
+  </si>
+  <si>
+    <t>Đỗ Văn Đức</t>
+  </si>
+  <si>
+    <t>ducdo@gmail.com</t>
+  </si>
+  <si>
+    <t>1999-10-05</t>
+  </si>
+  <si>
+    <t>Cần Thơ</t>
+  </si>
+  <si>
+    <t>SV007</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Lan</t>
+  </si>
+  <si>
+    <t>lannguyen@gmail.com</t>
+  </si>
+  <si>
+    <t>1998-11-15</t>
+  </si>
+  <si>
+    <t>Vũng Tàu</t>
+  </si>
+  <si>
+    <t>SV008</t>
+  </si>
+  <si>
+    <t>Trần Văn Anh</t>
+  </si>
+  <si>
+    <t>anhtran@gmail.com</t>
+  </si>
+  <si>
+    <t>2001-12-20</t>
+  </si>
+  <si>
+    <t>Đà Lạt</t>
+  </si>
+  <si>
+    <t>SV009</t>
+  </si>
+  <si>
+    <t>Lê Thị Phương</t>
+  </si>
+  <si>
+    <t>phuongle@gmail.com</t>
+  </si>
+  <si>
+    <t>2000-01-25</t>
+  </si>
+  <si>
+    <t>Buôn Ma Thuột</t>
+  </si>
+  <si>
+    <t>SV010</t>
+  </si>
+  <si>
+    <t>Phạm Văn Bình</t>
+  </si>
+  <si>
+    <t>binhpham@gmail.com</t>
+  </si>
+  <si>
+    <t>1999-02-28</t>
+  </si>
+  <si>
+    <t>012345678</t>
+  </si>
+  <si>
+    <t>Hồ Chí Minh</t>
   </si>
 </sst>
 </file>
@@ -121,9 +256,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -430,87 +568,345 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="2" max="2" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="3" max="3" width="16.424561" bestFit="true" customWidth="true" style="0"/>
-    <col min="4" max="4" width="6.998291" bestFit="true" customWidth="true" style="0"/>
-    <col min="5" max="5" width="12.854004" bestFit="true" customWidth="true" style="0"/>
+    <col min="1" max="1" width="4.570313" bestFit="true" customWidth="true" style="0"/>
+    <col min="2" max="2" width="15.281982" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="18.709717" bestFit="true" customWidth="true" style="0"/>
+    <col min="4" max="4" width="25.85083" bestFit="true" customWidth="true" style="0"/>
+    <col min="5" max="5" width="16.424561" bestFit="true" customWidth="true" style="0"/>
     <col min="6" max="6" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="7" max="7" width="9.283447" bestFit="true" customWidth="true" style="0"/>
-    <col min="8" max="8" width="12.854004" bestFit="true" customWidth="true" style="0"/>
-    <col min="9" max="9" width="18.709717" bestFit="true" customWidth="true" style="0"/>
-    <col min="10" max="10" width="9.283447" bestFit="true" customWidth="true" style="0"/>
+    <col min="7" max="7" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="8" max="8" width="11.711426" bestFit="true" customWidth="true" style="0"/>
+    <col min="9" max="9" width="16.424561" bestFit="true" customWidth="true" style="0"/>
+    <col min="10" max="10" width="1.142578" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="2">
-        <v>123</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="3">
+        <v>901234567</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3">
+        <v>123456789</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3">
+        <v>912345678</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="2"/>
+      <c r="H3" s="3">
+        <v>234567890</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="3">
+        <v>923456789</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="3">
+        <v>345678901</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="3">
+        <v>934567890</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="3">
+        <v>456789012</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="3">
+        <v>945678901</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="3">
+        <v>567890123</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E7" s="3">
+        <v>956789012</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3">
+        <v>678901234</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="3">
+        <v>967890123</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="3">
+        <v>789012345</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E9" s="3">
+        <v>978901234</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="3">
+        <v>890123456</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E10" s="3">
+        <v>989012345</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="3">
+        <v>901234567</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E11" s="3">
+        <v>990123456</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
